--- a/ig/ch-lab-report/ValueSet-ch-lab-bloodgroup-antibody-vs.xlsx
+++ b/ig/ch-lab-report/ValueSet-ch-lab-bloodgroup-antibody-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOWMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CH Lab Results Blood Group Antibody</t>
+    <t>CH LAB-Report BloodGroup Antibody Result (SNOMED CT coded substances)</t>
   </si>
   <si>
     <t>Status</t>
@@ -54,7 +54,7 @@
     <t>Experimental</t>
   </si>
   <si>
-    <t>true</t>
+    <t>false</t>
   </si>
   <si>
     <t>Date</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -87,7 +87,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ValueSet Blood Group Antibody</t>
+    <t>This value set is used in the ChLabObservationBloodGroup profile. It contains results of Blood Group Antibodies
+(substance) coded with SNOMED CT. It is used in the ChLabObservationBloodGroup profile</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/ch-lab-report/ValueSet-ch-lab-bloodgroup-antibody-vs.xlsx
+++ b/ig/ch-lab-report/ValueSet-ch-lab-bloodgroup-antibody-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-lab-report/ValueSet-ch-lab-bloodgroup-antibody-vs.xlsx
+++ b/ig/ch-lab-report/ValueSet-ch-lab-bloodgroup-antibody-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
